--- a/Pipelines.xlsx
+++ b/Pipelines.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krav\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED084F52-456C-4AFE-BFCA-F704DCB029AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87F4BA9-5EE7-42B6-8D10-BBD915055780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="121">
   <si>
     <t>RMS</t>
   </si>
@@ -268,6 +268,180 @@
   </si>
   <si>
     <t>DF</t>
+  </si>
+  <si>
+    <t>Z1</t>
+  </si>
+  <si>
+    <t>Z2</t>
+  </si>
+  <si>
+    <t>Z3</t>
+  </si>
+  <si>
+    <t>Z4</t>
+  </si>
+  <si>
+    <t>Z5</t>
+  </si>
+  <si>
+    <t>Z6</t>
+  </si>
+  <si>
+    <t>Z7</t>
+  </si>
+  <si>
+    <t>Z8</t>
+  </si>
+  <si>
+    <t>Z9</t>
+  </si>
+  <si>
+    <t>Z10</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>Y2</t>
+  </si>
+  <si>
+    <t>Y3</t>
+  </si>
+  <si>
+    <t>Y4</t>
+  </si>
+  <si>
+    <t>Y5</t>
+  </si>
+  <si>
+    <t>Y6</t>
+  </si>
+  <si>
+    <t>Y7</t>
+  </si>
+  <si>
+    <t>Y8</t>
+  </si>
+  <si>
+    <t>Y9</t>
+  </si>
+  <si>
+    <t>Y10</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>X3</t>
+  </si>
+  <si>
+    <t>X4</t>
+  </si>
+  <si>
+    <t>X5</t>
+  </si>
+  <si>
+    <t>X6</t>
+  </si>
+  <si>
+    <t>X7</t>
+  </si>
+  <si>
+    <t>X8</t>
+  </si>
+  <si>
+    <t>X9</t>
+  </si>
+  <si>
+    <t>X10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUC is calculated from average of trials </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVG is calculated from average of trials </t>
+  </si>
+  <si>
+    <t>RMS is calculated from average of trials.
+Zscore calculated for each Muscle (norm for muscle)</t>
+  </si>
+  <si>
+    <t>AUC is calculated from average of trials.
+Zscore calculated for each Muscle (norm for muscle)</t>
+  </si>
+  <si>
+    <t>AVG is calculated from average of trials.
+Zscore calculated for each Muscle (norm for muscle)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMS is calculated from average of trials </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUC is calculated from average of trials and baseline.
+each condition is then divided by baseline </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVG is calculated from average of trials and baseline.
+each condition is then divided by baseline </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMS is calculated from average of trials and baseline.
+each condition get baseline substraction </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUC is calculated from average of trials and baseline.
+each condition get baseline substraction </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVG is calculated from average of trials and baseline.
+each condition get baseline substraction </t>
+  </si>
+  <si>
+    <t>RMS is calculated from average of trials and baseline.
+each condition is then divided by baseline 
+Zscore calculated for each Muscle (norm for muscle)</t>
+  </si>
+  <si>
+    <t>AUC is calculated from average of trials and baseline.
+each condition is then divided by baseline 
+Zscore calculated for each Muscle (norm for muscle)</t>
+  </si>
+  <si>
+    <t>AVG is calculated from average of trials and baseline.
+each condition is then divided by baseline 
+Zscore calculated for each Muscle (norm for muscle)</t>
+  </si>
+  <si>
+    <t>RMS is calculated from average of trials and baseline.
+each condition get baseline substraction 
+Zscore calculated for each Muscle (norm for muscle)</t>
+  </si>
+  <si>
+    <t>AUC is calculated from average of trials and baseline.
+each condition get baseline substraction 
+Zscore calculated for each Muscle (norm for muscle)</t>
+  </si>
+  <si>
+    <t>AVG is calculated from average of trials and baseline.
+each condition get baseline substraction 
+Zscore calculated for each Muscle (norm for muscle)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMS is calculated from average of trials and baseline.
+each condition is then divided by baseline </t>
   </si>
 </sst>
 </file>
@@ -438,7 +612,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -476,23 +650,14 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -827,7 +992,7 @@
   <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1725,334 +1890,862 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="3"/>
+      <c r="A35" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="3"/>
+      <c r="A36" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
+      <c r="A37" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="A42" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="A46" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="A47" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="A48" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+      <c r="A50" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+      <c r="A51" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+      <c r="A52" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+      <c r="A53" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+      <c r="A54" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+      <c r="A55" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F55" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H55" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+      <c r="A56" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G56" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+      <c r="A57" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H57" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+      <c r="A58" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E58" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H58" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+      <c r="A59" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H59" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+      <c r="A60" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E60" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G60" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H60" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+      <c r="A61" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E61" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G61" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H61" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+      <c r="A62" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E62" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H62" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+      <c r="A63" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E63" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F63" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G63" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H63" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+      <c r="A64" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E64" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F64" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G64" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H64" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+      <c r="A65" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E65" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F65" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G65" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H65" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+      <c r="A66" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E66" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G66" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H66" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+      <c r="A67" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E67" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F67" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G67" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H67" s="11" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
@@ -2119,898 +2812,898 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="H34" sqref="A2:H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="18.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="16.7109375" customWidth="1"/>
-    <col min="7" max="7" width="30.42578125" customWidth="1"/>
-    <col min="8" max="8" width="34.5703125" customWidth="1"/>
+    <col min="1" max="7" width="18.7109375" style="13"/>
+    <col min="8" max="8" width="37.7109375" style="13" customWidth="1"/>
+    <col min="9" max="16384" width="18.7109375" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="78.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="48.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="17" t="s">
+    <row r="2" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="48" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="17" t="s">
+      <c r="D2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="48" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="132" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="17" t="s">
+      <c r="D3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="48" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="132" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="17" t="s">
+      <c r="D5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="132" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="132" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="17" t="s">
+      <c r="D6" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="132" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="17" t="s">
+      <c r="E8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="132" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="17" t="s">
+      <c r="E9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="17" t="s">
+      <c r="E10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="17" t="s">
+      <c r="D11" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="17" t="s">
+      <c r="D12" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="17" t="s">
+      <c r="D14" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="H16" s="18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="204" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="17" t="s">
+      <c r="D15" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="H17" s="18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="204" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="17" t="s">
+      <c r="D17" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="H18" s="18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="204" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="H19" s="18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="204" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="17" t="s">
+      <c r="D18" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="H20" s="18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="204" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="17" t="s">
+      <c r="E20" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="H21" s="18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="204" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="17" t="s">
+      <c r="E21" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="H22" s="18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="204" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="17" t="s">
+      <c r="E22" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D23" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="H23" s="18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="204" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="17" t="s">
+      <c r="D23" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="H24" s="18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="204" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="G25" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="H25" s="18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="204" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="17" t="s">
+      <c r="D24" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="E26" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="H26" s="18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="204" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="17" t="s">
+      <c r="E26" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="E27" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="H27" s="18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="204" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" s="17" t="s">
+      <c r="E27" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="G28" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="H28" s="18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="204" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="17" t="s">
+      <c r="E28" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D29" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="H29" s="18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="204" x14ac:dyDescent="0.25">
-      <c r="A30" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="17" t="s">
+      <c r="D29" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F30" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="G30" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="H30" s="18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="204" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F31" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="G31" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="H31" s="18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="204" x14ac:dyDescent="0.25">
-      <c r="A32" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="17" t="s">
+      <c r="D30" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="E32" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="H32" s="18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="204" x14ac:dyDescent="0.25">
-      <c r="A33" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="17" t="s">
+      <c r="E32" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="E33" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="G33" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="H33" s="18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="204" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D34" s="17" t="s">
+      <c r="E33" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="E34" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F34" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="G34" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="H34" s="18" t="s">
-        <v>52</v>
+      <c r="E34" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/Pipelines.xlsx
+++ b/Pipelines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krav\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99BE3E3D-812D-4FFF-8437-6A34FE317E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E96F8E1-0E31-4ED0-A17F-A17B0F577225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -700,7 +700,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -741,19 +741,13 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -764,41 +758,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="19">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -832,6 +791,41 @@
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -846,35 +840,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F427D618-B9D0-4626-ADCE-4126EE6655E6}" name="Table32" displayName="Table32" ref="A1:G73" totalsRowShown="0" headerRowDxfId="8" dataDxfId="1" headerRowCellStyle="Heading 1" dataCellStyle="20% - Accent1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F427D618-B9D0-4626-ADCE-4126EE6655E6}" name="Table32" displayName="Table32" ref="A1:G73" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" headerRowCellStyle="Heading 1" dataCellStyle="20% - Accent1">
   <autoFilter ref="A1:G73" xr:uid="{F427D618-B9D0-4626-ADCE-4126EE6655E6}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{BDE40665-1605-4BE0-97A9-E4F7652A1831}" name="Pipeline Name" dataDxfId="0" dataCellStyle="20% - Accent1">
-      <calculatedColumnFormula>_xlfn.CONCAT(B2,"_", LEFT(C2),"_",LEFT(D2),LEFT(E2),LEFT(F2))</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{BDE40665-1605-4BE0-97A9-E4F7652A1831}" name="Pipeline Name" dataDxfId="16" dataCellStyle="20% - Accent1">
+      <calculatedColumnFormula>_xlfn.CONCAT(C2,"_", LEFT(B2),"_",LEFT(D2),LEFT(E2),LEFT(F2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{7E3E44E8-D79C-4495-8310-FABB76EA88F7}" name="Index" dataDxfId="7" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="3" xr3:uid="{80CD52E1-04AF-42F8-BFAF-7AF9A583CFB0}" name="Signal" dataDxfId="6" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="9" xr3:uid="{4914791D-D49A-4934-A930-78DD9B34060E}" name="Baseline Correction" dataDxfId="5" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="8" xr3:uid="{4C9C2337-41FD-4342-B458-52D3531F8AED}" name="Standardization within muscle" dataDxfId="4" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="10" xr3:uid="{48D52EB0-90E4-422A-AFC6-A69D9E956190}" name="Standardization within subject" dataDxfId="3" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="5" xr3:uid="{30530B75-9C5D-43EE-A376-56DA22E5667F}" name="Data reduction" dataDxfId="2" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="3" xr3:uid="{80CD52E1-04AF-42F8-BFAF-7AF9A583CFB0}" name="Signal" dataDxfId="0" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="2" xr3:uid="{7E3E44E8-D79C-4495-8310-FABB76EA88F7}" name="Index" dataDxfId="15" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="9" xr3:uid="{4914791D-D49A-4934-A930-78DD9B34060E}" name="Baseline Correction" dataDxfId="14" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="8" xr3:uid="{4C9C2337-41FD-4342-B458-52D3531F8AED}" name="Standardization within muscle" dataDxfId="13" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="10" xr3:uid="{48D52EB0-90E4-422A-AFC6-A69D9E956190}" name="Standardization within subject" dataDxfId="12" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="5" xr3:uid="{30530B75-9C5D-43EE-A376-56DA22E5667F}" name="Data reduction" dataDxfId="11" dataCellStyle="20% - Accent1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{585C6ABF-8966-4EF6-8E43-FFCF0483603D}" name="Table3" displayName="Table3" ref="A1:H71" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" headerRowCellStyle="Heading 1" dataCellStyle="20% - Accent1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{585C6ABF-8966-4EF6-8E43-FFCF0483603D}" name="Table3" displayName="Table3" ref="A1:H71" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" headerRowCellStyle="Heading 1" dataCellStyle="20% - Accent1">
   <autoFilter ref="A1:H71" xr:uid="{585C6ABF-8966-4EF6-8E43-FFCF0483603D}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{96A694CC-3D31-4523-B68B-5F0311D7B70F}" name="Pipeline_x000a_" dataDxfId="16" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="2" xr3:uid="{53A1C0E8-C0DB-4198-91B6-8BF5E5B530E5}" name="Signal_x000a_" dataDxfId="15" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="3" xr3:uid="{B532660C-57A6-4CF1-BEB7-32B320EE3BF0}" name="Step1_x000a_index" dataDxfId="14" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="4" xr3:uid="{5A4F75FD-FDF5-466D-8975-4511CC6B9D35}" name="Step2_x000a_normTrial" dataDxfId="13" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="8" xr3:uid="{5EA7FCC1-D64D-43B3-B4C7-5C5F6AF8B6F5}" name="Step3_x000a_normMuscle" dataDxfId="12" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="10" xr3:uid="{E6880D18-72C5-4034-8B92-487E95B5A1E4}" name="Step4_x000a_subject" dataDxfId="11" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="5" xr3:uid="{0D1976BD-008F-40B0-A2F8-C8D7B8C018BB}" name="Step5_x000a_reduction" dataDxfId="10" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="6" xr3:uid="{384087C4-F216-487C-A3AC-B7EFB31409FC}" name="Description_x000a_" dataDxfId="9" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="1" xr3:uid="{96A694CC-3D31-4523-B68B-5F0311D7B70F}" name="Pipeline_x000a_" dataDxfId="8" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="2" xr3:uid="{53A1C0E8-C0DB-4198-91B6-8BF5E5B530E5}" name="Signal_x000a_" dataDxfId="7" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="3" xr3:uid="{B532660C-57A6-4CF1-BEB7-32B320EE3BF0}" name="Step1_x000a_index" dataDxfId="6" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="4" xr3:uid="{5A4F75FD-FDF5-466D-8975-4511CC6B9D35}" name="Step2_x000a_normTrial" dataDxfId="5" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="8" xr3:uid="{5EA7FCC1-D64D-43B3-B4C7-5C5F6AF8B6F5}" name="Step3_x000a_normMuscle" dataDxfId="4" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="10" xr3:uid="{E6880D18-72C5-4034-8B92-487E95B5A1E4}" name="Step4_x000a_subject" dataDxfId="3" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="5" xr3:uid="{0D1976BD-008F-40B0-A2F8-C8D7B8C018BB}" name="Step5_x000a_reduction" dataDxfId="2" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="6" xr3:uid="{384087C4-F216-487C-A3AC-B7EFB31409FC}" name="Description_x000a_" dataDxfId="1" dataCellStyle="20% - Accent1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1146,28 +1140,30 @@
   <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35" style="19" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" customWidth="1"/>
-    <col min="3" max="4" width="28.42578125" customWidth="1"/>
-    <col min="5" max="5" width="34.7109375" customWidth="1"/>
-    <col min="6" max="6" width="28.5703125" customWidth="1"/>
-    <col min="7" max="7" width="26.7109375" customWidth="1"/>
+    <col min="1" max="1" width="35" style="17" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" customWidth="1"/>
+    <col min="6" max="6" width="34.7109375" customWidth="1"/>
+    <col min="7" max="7" width="28.5703125" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="10" customFormat="1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:7" s="10" customFormat="1" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>120</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>119</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>118</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>127</v>
@@ -1183,15 +1179,15 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="str">
-        <f t="shared" ref="A2:A33" si="0">_xlfn.CONCAT(B2,"_", LEFT(C2),"_",LEFT(D2),LEFT(E2),LEFT(F2))</f>
+      <c r="A2" s="11" t="str">
+        <f>_xlfn.CONCAT(C2,"_", LEFT(B2),"_",LEFT(D2),LEFT(E2),LEFT(F2))</f>
         <v>RMS_R_000</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="12" t="s">
+      <c r="B2" s="12" t="s">
         <v>124</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>0</v>
       </c>
       <c r="D2" s="11">
         <v>0</v>
@@ -1207,15 +1203,15 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="str">
-        <f t="shared" si="0"/>
+      <c r="A3" s="11" t="str">
+        <f>_xlfn.CONCAT(C3,"_", LEFT(B3),"_",LEFT(D3),LEFT(E3),LEFT(F3))</f>
         <v>RMS_R_S00</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="12" t="s">
         <v>124</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>0</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>125</v>
@@ -1231,15 +1227,15 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="str">
-        <f t="shared" si="0"/>
+      <c r="A4" s="11" t="str">
+        <f>_xlfn.CONCAT(C4,"_", LEFT(B4),"_",LEFT(D4),LEFT(E4),LEFT(F4))</f>
         <v>RMS_R_D00</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="12" t="s">
+      <c r="B4" s="12" t="s">
         <v>124</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>0</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>126</v>
@@ -1255,15 +1251,15 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="str">
-        <f t="shared" si="0"/>
+      <c r="A5" s="11" t="str">
+        <f>_xlfn.CONCAT(C5,"_", LEFT(B5),"_",LEFT(D5),LEFT(E5),LEFT(F5))</f>
         <v>RMS_R_0M0</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="12" t="s">
+      <c r="B5" s="12" t="s">
         <v>124</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>0</v>
       </c>
       <c r="D5" s="11">
         <v>0</v>
@@ -1279,15 +1275,15 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="str">
-        <f t="shared" si="0"/>
+      <c r="A6" s="11" t="str">
+        <f>_xlfn.CONCAT(C6,"_", LEFT(B6),"_",LEFT(D6),LEFT(E6),LEFT(F6))</f>
         <v>RMS_R_SM0</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="12" t="s">
         <v>124</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>0</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>125</v>
@@ -1303,15 +1299,15 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="str">
-        <f t="shared" si="0"/>
+      <c r="A7" s="11" t="str">
+        <f>_xlfn.CONCAT(C7,"_", LEFT(B7),"_",LEFT(D7),LEFT(E7),LEFT(F7))</f>
         <v>RMS_R_DM0</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="12" t="s">
+      <c r="B7" s="12" t="s">
         <v>124</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>0</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>126</v>
@@ -1327,15 +1323,15 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="str">
-        <f t="shared" si="0"/>
+      <c r="A8" s="11" t="str">
+        <f>_xlfn.CONCAT(C8,"_", LEFT(B8),"_",LEFT(D8),LEFT(E8),LEFT(F8))</f>
         <v>RMS_R_00S</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="12" t="s">
+      <c r="B8" s="12" t="s">
         <v>124</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>0</v>
       </c>
       <c r="D8" s="11">
         <v>0</v>
@@ -1351,15 +1347,15 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="str">
-        <f t="shared" si="0"/>
+      <c r="A9" s="11" t="str">
+        <f>_xlfn.CONCAT(C9,"_", LEFT(B9),"_",LEFT(D9),LEFT(E9),LEFT(F9))</f>
         <v>RMS_R_S0S</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="12" t="s">
+      <c r="B9" s="12" t="s">
         <v>124</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>0</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>125</v>
@@ -1375,15 +1371,15 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="str">
-        <f t="shared" si="0"/>
+      <c r="A10" s="11" t="str">
+        <f>_xlfn.CONCAT(C10,"_", LEFT(B10),"_",LEFT(D10),LEFT(E10),LEFT(F10))</f>
         <v>RMS_R_D0S</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="12" t="s">
+      <c r="B10" s="12" t="s">
         <v>124</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>0</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>126</v>
@@ -1399,15 +1395,15 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="str">
-        <f t="shared" si="0"/>
+      <c r="A11" s="11" t="str">
+        <f>_xlfn.CONCAT(C11,"_", LEFT(B11),"_",LEFT(D11),LEFT(E11),LEFT(F11))</f>
         <v>RMS_R_0MS</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="12" t="s">
+      <c r="B11" s="12" t="s">
         <v>124</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>0</v>
       </c>
       <c r="D11" s="11">
         <v>0</v>
@@ -1423,15 +1419,15 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="str">
-        <f t="shared" si="0"/>
+      <c r="A12" s="11" t="str">
+        <f>_xlfn.CONCAT(C12,"_", LEFT(B12),"_",LEFT(D12),LEFT(E12),LEFT(F12))</f>
         <v>RMS_R_SMS</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="12" t="s">
+      <c r="B12" s="12" t="s">
         <v>124</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>0</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>125</v>
@@ -1447,15 +1443,15 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="str">
-        <f t="shared" si="0"/>
+      <c r="A13" s="11" t="str">
+        <f>_xlfn.CONCAT(C13,"_", LEFT(B13),"_",LEFT(D13),LEFT(E13),LEFT(F13))</f>
         <v>RMS_R_DMS</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="12" t="s">
+      <c r="B13" s="12" t="s">
         <v>124</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>0</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>126</v>
@@ -1471,15 +1467,15 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="str">
-        <f t="shared" si="0"/>
+      <c r="A14" s="11" t="str">
+        <f>_xlfn.CONCAT(C14,"_", LEFT(B14),"_",LEFT(D14),LEFT(E14),LEFT(F14))</f>
         <v>AUC_R_000</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>4</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>124</v>
       </c>
       <c r="D14" s="11">
         <v>0</v>
@@ -1495,15 +1491,15 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="str">
-        <f t="shared" si="0"/>
+      <c r="A15" s="11" t="str">
+        <f>_xlfn.CONCAT(C15,"_", LEFT(B15),"_",LEFT(D15),LEFT(E15),LEFT(F15))</f>
         <v>AUC_R_S00</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>4</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>124</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>125</v>
@@ -1519,15 +1515,15 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="str">
-        <f t="shared" si="0"/>
+      <c r="A16" s="11" t="str">
+        <f>_xlfn.CONCAT(C16,"_", LEFT(B16),"_",LEFT(D16),LEFT(E16),LEFT(F16))</f>
         <v>AUC_R_D00</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>4</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>124</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>126</v>
@@ -1543,15 +1539,15 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="str">
-        <f t="shared" si="0"/>
+      <c r="A17" s="11" t="str">
+        <f>_xlfn.CONCAT(C17,"_", LEFT(B17),"_",LEFT(D17),LEFT(E17),LEFT(F17))</f>
         <v>AUC_R_0M0</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>4</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>124</v>
       </c>
       <c r="D17" s="11">
         <v>0</v>
@@ -1567,15 +1563,15 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="str">
-        <f t="shared" si="0"/>
+      <c r="A18" s="11" t="str">
+        <f>_xlfn.CONCAT(C18,"_", LEFT(B18),"_",LEFT(D18),LEFT(E18),LEFT(F18))</f>
         <v>AUC_R_SM0</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>4</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>124</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>125</v>
@@ -1591,15 +1587,15 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="str">
-        <f t="shared" si="0"/>
+      <c r="A19" s="11" t="str">
+        <f>_xlfn.CONCAT(C19,"_", LEFT(B19),"_",LEFT(D19),LEFT(E19),LEFT(F19))</f>
         <v>AUC_R_DM0</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>4</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>124</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>126</v>
@@ -1615,15 +1611,15 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="str">
-        <f t="shared" si="0"/>
+      <c r="A20" s="11" t="str">
+        <f>_xlfn.CONCAT(C20,"_", LEFT(B20),"_",LEFT(D20),LEFT(E20),LEFT(F20))</f>
         <v>AUC_R_00S</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>4</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>124</v>
       </c>
       <c r="D20" s="11">
         <v>0</v>
@@ -1639,15 +1635,15 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="str">
-        <f t="shared" si="0"/>
+      <c r="A21" s="11" t="str">
+        <f>_xlfn.CONCAT(C21,"_", LEFT(B21),"_",LEFT(D21),LEFT(E21),LEFT(F21))</f>
         <v>AUC_R_S0S</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>4</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>124</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>125</v>
@@ -1663,15 +1659,15 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="str">
-        <f t="shared" si="0"/>
+      <c r="A22" s="11" t="str">
+        <f>_xlfn.CONCAT(C22,"_", LEFT(B22),"_",LEFT(D22),LEFT(E22),LEFT(F22))</f>
         <v>AUC_R_D0S</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>4</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>124</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>126</v>
@@ -1687,15 +1683,15 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="str">
-        <f t="shared" si="0"/>
+      <c r="A23" s="11" t="str">
+        <f>_xlfn.CONCAT(C23,"_", LEFT(B23),"_",LEFT(D23),LEFT(E23),LEFT(F23))</f>
         <v>AUC_R_0MS</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>4</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>124</v>
       </c>
       <c r="D23" s="11">
         <v>0</v>
@@ -1711,15 +1707,15 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="str">
-        <f t="shared" si="0"/>
+      <c r="A24" s="11" t="str">
+        <f>_xlfn.CONCAT(C24,"_", LEFT(B24),"_",LEFT(D24),LEFT(E24),LEFT(F24))</f>
         <v>AUC_R_SMS</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>4</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>124</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>125</v>
@@ -1735,15 +1731,15 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="str">
-        <f t="shared" si="0"/>
+      <c r="A25" s="11" t="str">
+        <f>_xlfn.CONCAT(C25,"_", LEFT(B25),"_",LEFT(D25),LEFT(E25),LEFT(F25))</f>
         <v>AUC_R_DMS</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="11" t="s">
         <v>4</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>124</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>126</v>
@@ -1759,15 +1755,15 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="str">
-        <f t="shared" si="0"/>
+      <c r="A26" s="11" t="str">
+        <f>_xlfn.CONCAT(C26,"_", LEFT(B26),"_",LEFT(D26),LEFT(E26),LEFT(F26))</f>
         <v>AVG_R_000</v>
       </c>
-      <c r="B26" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" s="12" t="s">
+      <c r="B26" s="12" t="s">
         <v>124</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>2</v>
       </c>
       <c r="D26" s="11">
         <v>0</v>
@@ -1783,15 +1779,15 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="str">
-        <f t="shared" si="0"/>
+      <c r="A27" s="11" t="str">
+        <f>_xlfn.CONCAT(C27,"_", LEFT(B27),"_",LEFT(D27),LEFT(E27),LEFT(F27))</f>
         <v>AVG_R_S00</v>
       </c>
-      <c r="B27" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="12" t="s">
+      <c r="B27" s="12" t="s">
         <v>124</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>2</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>125</v>
@@ -1807,15 +1803,15 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="str">
-        <f t="shared" si="0"/>
+      <c r="A28" s="11" t="str">
+        <f>_xlfn.CONCAT(C28,"_", LEFT(B28),"_",LEFT(D28),LEFT(E28),LEFT(F28))</f>
         <v>AVG_R_D00</v>
       </c>
-      <c r="B28" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" s="12" t="s">
+      <c r="B28" s="12" t="s">
         <v>124</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>2</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>126</v>
@@ -1831,15 +1827,15 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="str">
-        <f t="shared" si="0"/>
+      <c r="A29" s="11" t="str">
+        <f>_xlfn.CONCAT(C29,"_", LEFT(B29),"_",LEFT(D29),LEFT(E29),LEFT(F29))</f>
         <v>AVG_R_0M0</v>
       </c>
-      <c r="B29" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" s="12" t="s">
+      <c r="B29" s="12" t="s">
         <v>124</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>2</v>
       </c>
       <c r="D29" s="11">
         <v>0</v>
@@ -1855,15 +1851,15 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="16" t="str">
-        <f t="shared" si="0"/>
+      <c r="A30" s="11" t="str">
+        <f>_xlfn.CONCAT(C30,"_", LEFT(B30),"_",LEFT(D30),LEFT(E30),LEFT(F30))</f>
         <v>AVG_R_SM0</v>
       </c>
-      <c r="B30" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30" s="12" t="s">
+      <c r="B30" s="12" t="s">
         <v>124</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>2</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>125</v>
@@ -1879,15 +1875,15 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="str">
-        <f t="shared" si="0"/>
+      <c r="A31" s="11" t="str">
+        <f>_xlfn.CONCAT(C31,"_", LEFT(B31),"_",LEFT(D31),LEFT(E31),LEFT(F31))</f>
         <v>AVG_R_DM0</v>
       </c>
-      <c r="B31" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" s="12" t="s">
+      <c r="B31" s="12" t="s">
         <v>124</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>2</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>126</v>
@@ -1903,15 +1899,15 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="16" t="str">
-        <f t="shared" si="0"/>
+      <c r="A32" s="11" t="str">
+        <f>_xlfn.CONCAT(C32,"_", LEFT(B32),"_",LEFT(D32),LEFT(E32),LEFT(F32))</f>
         <v>AVG_R_00S</v>
       </c>
-      <c r="B32" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32" s="12" t="s">
+      <c r="B32" s="12" t="s">
         <v>124</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>2</v>
       </c>
       <c r="D32" s="11">
         <v>0</v>
@@ -1927,15 +1923,15 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="16" t="str">
-        <f t="shared" si="0"/>
+      <c r="A33" s="11" t="str">
+        <f>_xlfn.CONCAT(C33,"_", LEFT(B33),"_",LEFT(D33),LEFT(E33),LEFT(F33))</f>
         <v>AVG_R_S0S</v>
       </c>
-      <c r="B33" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C33" s="12" t="s">
+      <c r="B33" s="12" t="s">
         <v>124</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>2</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>125</v>
@@ -1951,15 +1947,15 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="str">
-        <f t="shared" ref="A34:A65" si="1">_xlfn.CONCAT(B34,"_", LEFT(C34),"_",LEFT(D34),LEFT(E34),LEFT(F34))</f>
+      <c r="A34" s="11" t="str">
+        <f>_xlfn.CONCAT(C34,"_", LEFT(B34),"_",LEFT(D34),LEFT(E34),LEFT(F34))</f>
         <v>AVG_R_D0S</v>
       </c>
-      <c r="B34" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C34" s="12" t="s">
+      <c r="B34" s="12" t="s">
         <v>124</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>2</v>
       </c>
       <c r="D34" s="12" t="s">
         <v>126</v>
@@ -1976,14 +1972,14 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT(C35,"_", LEFT(B35),"_",LEFT(D35),LEFT(E35),LEFT(F35))</f>
         <v>AVG_R_0MS</v>
       </c>
-      <c r="B35" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C35" s="12" t="s">
+      <c r="B35" s="12" t="s">
         <v>124</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>2</v>
       </c>
       <c r="D35" s="11">
         <v>0</v>
@@ -2000,14 +1996,14 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT(C36,"_", LEFT(B36),"_",LEFT(D36),LEFT(E36),LEFT(F36))</f>
         <v>AVG_R_SMS</v>
       </c>
-      <c r="B36" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" s="12" t="s">
+      <c r="B36" s="12" t="s">
         <v>124</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>2</v>
       </c>
       <c r="D36" s="12" t="s">
         <v>125</v>
@@ -2024,14 +2020,14 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT(C37,"_", LEFT(B37),"_",LEFT(D37),LEFT(E37),LEFT(F37))</f>
         <v>AVG_R_DMS</v>
       </c>
-      <c r="B37" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C37" s="12" t="s">
+      <c r="B37" s="12" t="s">
         <v>124</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>2</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>126</v>
@@ -2048,14 +2044,14 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT(C38,"_", LEFT(B38),"_",LEFT(D38),LEFT(E38),LEFT(F38))</f>
         <v>RMS_A_000</v>
       </c>
-      <c r="B38" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C38" s="12" t="s">
+      <c r="B38" s="12" t="s">
         <v>123</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>0</v>
       </c>
       <c r="D38" s="11">
         <v>0</v>
@@ -2072,14 +2068,14 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT(C39,"_", LEFT(B39),"_",LEFT(D39),LEFT(E39),LEFT(F39))</f>
         <v>RMS_A_S00</v>
       </c>
-      <c r="B39" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" s="12" t="s">
+      <c r="B39" s="12" t="s">
         <v>123</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>0</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>125</v>
@@ -2096,14 +2092,14 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT(C40,"_", LEFT(B40),"_",LEFT(D40),LEFT(E40),LEFT(F40))</f>
         <v>RMS_A_D00</v>
       </c>
-      <c r="B40" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C40" s="12" t="s">
+      <c r="B40" s="12" t="s">
         <v>123</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>0</v>
       </c>
       <c r="D40" s="12" t="s">
         <v>126</v>
@@ -2120,14 +2116,14 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT(C41,"_", LEFT(B41),"_",LEFT(D41),LEFT(E41),LEFT(F41))</f>
         <v>RMS_A_0M0</v>
       </c>
-      <c r="B41" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C41" s="12" t="s">
+      <c r="B41" s="12" t="s">
         <v>123</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>0</v>
       </c>
       <c r="D41" s="11">
         <v>0</v>
@@ -2144,14 +2140,14 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT(C42,"_", LEFT(B42),"_",LEFT(D42),LEFT(E42),LEFT(F42))</f>
         <v>RMS_A_SM0</v>
       </c>
-      <c r="B42" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C42" s="12" t="s">
+      <c r="B42" s="12" t="s">
         <v>123</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>0</v>
       </c>
       <c r="D42" s="12" t="s">
         <v>125</v>
@@ -2168,14 +2164,14 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT(C43,"_", LEFT(B43),"_",LEFT(D43),LEFT(E43),LEFT(F43))</f>
         <v>RMS_A_DM0</v>
       </c>
-      <c r="B43" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C43" s="12" t="s">
+      <c r="B43" s="12" t="s">
         <v>123</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>0</v>
       </c>
       <c r="D43" s="12" t="s">
         <v>126</v>
@@ -2192,14 +2188,14 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT(C44,"_", LEFT(B44),"_",LEFT(D44),LEFT(E44),LEFT(F44))</f>
         <v>RMS_A_00S</v>
       </c>
-      <c r="B44" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44" s="12" t="s">
+      <c r="B44" s="12" t="s">
         <v>123</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>0</v>
       </c>
       <c r="D44" s="11">
         <v>0</v>
@@ -2216,14 +2212,14 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT(C45,"_", LEFT(B45),"_",LEFT(D45),LEFT(E45),LEFT(F45))</f>
         <v>RMS_A_S0S</v>
       </c>
-      <c r="B45" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C45" s="12" t="s">
+      <c r="B45" s="12" t="s">
         <v>123</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>0</v>
       </c>
       <c r="D45" s="12" t="s">
         <v>125</v>
@@ -2240,14 +2236,14 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT(C46,"_", LEFT(B46),"_",LEFT(D46),LEFT(E46),LEFT(F46))</f>
         <v>RMS_A_D0S</v>
       </c>
-      <c r="B46" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C46" s="12" t="s">
+      <c r="B46" s="12" t="s">
         <v>123</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>0</v>
       </c>
       <c r="D46" s="12" t="s">
         <v>126</v>
@@ -2264,14 +2260,14 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT(C47,"_", LEFT(B47),"_",LEFT(D47),LEFT(E47),LEFT(F47))</f>
         <v>RMS_A_0MS</v>
       </c>
-      <c r="B47" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C47" s="12" t="s">
+      <c r="B47" s="12" t="s">
         <v>123</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>0</v>
       </c>
       <c r="D47" s="11">
         <v>0</v>
@@ -2288,14 +2284,14 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT(C48,"_", LEFT(B48),"_",LEFT(D48),LEFT(E48),LEFT(F48))</f>
         <v>RMS_A_SMS</v>
       </c>
-      <c r="B48" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C48" s="12" t="s">
+      <c r="B48" s="12" t="s">
         <v>123</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>0</v>
       </c>
       <c r="D48" s="12" t="s">
         <v>125</v>
@@ -2312,14 +2308,14 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT(C49,"_", LEFT(B49),"_",LEFT(D49),LEFT(E49),LEFT(F49))</f>
         <v>RMS_A_DMS</v>
       </c>
-      <c r="B49" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C49" s="12" t="s">
+      <c r="B49" s="12" t="s">
         <v>123</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>0</v>
       </c>
       <c r="D49" s="12" t="s">
         <v>126</v>
@@ -2336,14 +2332,14 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT(C50,"_", LEFT(B50),"_",LEFT(D50),LEFT(E50),LEFT(F50))</f>
         <v>AUC_A_000</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C50" s="11" t="s">
         <v>4</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>123</v>
       </c>
       <c r="D50" s="11">
         <v>0</v>
@@ -2360,14 +2356,14 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT(C51,"_", LEFT(B51),"_",LEFT(D51),LEFT(E51),LEFT(F51))</f>
         <v>AUC_A_S00</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C51" s="11" t="s">
         <v>4</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>123</v>
       </c>
       <c r="D51" s="12" t="s">
         <v>125</v>
@@ -2384,14 +2380,14 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT(C52,"_", LEFT(B52),"_",LEFT(D52),LEFT(E52),LEFT(F52))</f>
         <v>AUC_A_D00</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C52" s="11" t="s">
         <v>4</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>123</v>
       </c>
       <c r="D52" s="12" t="s">
         <v>126</v>
@@ -2408,14 +2404,14 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT(C53,"_", LEFT(B53),"_",LEFT(D53),LEFT(E53),LEFT(F53))</f>
         <v>AUC_A_0M0</v>
       </c>
-      <c r="B53" s="11" t="s">
+      <c r="B53" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C53" s="11" t="s">
         <v>4</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>123</v>
       </c>
       <c r="D53" s="11">
         <v>0</v>
@@ -2432,14 +2428,14 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT(C54,"_", LEFT(B54),"_",LEFT(D54),LEFT(E54),LEFT(F54))</f>
         <v>AUC_A_SM0</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="B54" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C54" s="11" t="s">
         <v>4</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>123</v>
       </c>
       <c r="D54" s="12" t="s">
         <v>125</v>
@@ -2456,14 +2452,14 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT(C55,"_", LEFT(B55),"_",LEFT(D55),LEFT(E55),LEFT(F55))</f>
         <v>AUC_A_DM0</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C55" s="11" t="s">
         <v>4</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>123</v>
       </c>
       <c r="D55" s="12" t="s">
         <v>126</v>
@@ -2480,14 +2476,14 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT(C56,"_", LEFT(B56),"_",LEFT(D56),LEFT(E56),LEFT(F56))</f>
         <v>AUC_A_00S</v>
       </c>
-      <c r="B56" s="11" t="s">
+      <c r="B56" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C56" s="11" t="s">
         <v>4</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>123</v>
       </c>
       <c r="D56" s="11">
         <v>0</v>
@@ -2504,14 +2500,14 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT(C57,"_", LEFT(B57),"_",LEFT(D57),LEFT(E57),LEFT(F57))</f>
         <v>AUC_A_S0S</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="B57" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C57" s="11" t="s">
         <v>4</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>123</v>
       </c>
       <c r="D57" s="12" t="s">
         <v>125</v>
@@ -2528,14 +2524,14 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT(C58,"_", LEFT(B58),"_",LEFT(D58),LEFT(E58),LEFT(F58))</f>
         <v>AUC_A_D0S</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="B58" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C58" s="11" t="s">
         <v>4</v>
-      </c>
-      <c r="C58" s="12" t="s">
-        <v>123</v>
       </c>
       <c r="D58" s="12" t="s">
         <v>126</v>
@@ -2552,14 +2548,14 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT(C59,"_", LEFT(B59),"_",LEFT(D59),LEFT(E59),LEFT(F59))</f>
         <v>AUC_A_0MS</v>
       </c>
-      <c r="B59" s="11" t="s">
+      <c r="B59" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C59" s="11" t="s">
         <v>4</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>123</v>
       </c>
       <c r="D59" s="11">
         <v>0</v>
@@ -2576,14 +2572,14 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT(C60,"_", LEFT(B60),"_",LEFT(D60),LEFT(E60),LEFT(F60))</f>
         <v>AUC_A_SMS</v>
       </c>
-      <c r="B60" s="11" t="s">
+      <c r="B60" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C60" s="11" t="s">
         <v>4</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>123</v>
       </c>
       <c r="D60" s="12" t="s">
         <v>125</v>
@@ -2600,14 +2596,14 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT(C61,"_", LEFT(B61),"_",LEFT(D61),LEFT(E61),LEFT(F61))</f>
         <v>AUC_A_DMS</v>
       </c>
-      <c r="B61" s="11" t="s">
+      <c r="B61" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C61" s="11" t="s">
         <v>4</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>123</v>
       </c>
       <c r="D61" s="12" t="s">
         <v>126</v>
@@ -2624,14 +2620,14 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT(C62,"_", LEFT(B62),"_",LEFT(D62),LEFT(E62),LEFT(F62))</f>
         <v>AVG_A_000</v>
       </c>
-      <c r="B62" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C62" s="12" t="s">
+      <c r="B62" s="12" t="s">
         <v>123</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>2</v>
       </c>
       <c r="D62" s="11">
         <v>0</v>
@@ -2648,14 +2644,14 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT(C63,"_", LEFT(B63),"_",LEFT(D63),LEFT(E63),LEFT(F63))</f>
         <v>AVG_A_S00</v>
       </c>
-      <c r="B63" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C63" s="12" t="s">
+      <c r="B63" s="12" t="s">
         <v>123</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>2</v>
       </c>
       <c r="D63" s="12" t="s">
         <v>125</v>
@@ -2672,14 +2668,14 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT(C64,"_", LEFT(B64),"_",LEFT(D64),LEFT(E64),LEFT(F64))</f>
         <v>AVG_A_D00</v>
       </c>
-      <c r="B64" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C64" s="12" t="s">
+      <c r="B64" s="12" t="s">
         <v>123</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>2</v>
       </c>
       <c r="D64" s="12" t="s">
         <v>126</v>
@@ -2696,14 +2692,14 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT(C65,"_", LEFT(B65),"_",LEFT(D65),LEFT(E65),LEFT(F65))</f>
         <v>AVG_A_0M0</v>
       </c>
-      <c r="B65" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C65" s="12" t="s">
+      <c r="B65" s="12" t="s">
         <v>123</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>2</v>
       </c>
       <c r="D65" s="11">
         <v>0</v>
@@ -2720,14 +2716,14 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="str">
-        <f t="shared" ref="A66:A97" si="2">_xlfn.CONCAT(B66,"_", LEFT(C66),"_",LEFT(D66),LEFT(E66),LEFT(F66))</f>
+        <f>_xlfn.CONCAT(C66,"_", LEFT(B66),"_",LEFT(D66),LEFT(E66),LEFT(F66))</f>
         <v>AVG_A_SM0</v>
       </c>
-      <c r="B66" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C66" s="12" t="s">
+      <c r="B66" s="12" t="s">
         <v>123</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>2</v>
       </c>
       <c r="D66" s="12" t="s">
         <v>125</v>
@@ -2744,14 +2740,14 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f>_xlfn.CONCAT(C67,"_", LEFT(B67),"_",LEFT(D67),LEFT(E67),LEFT(F67))</f>
         <v>AVG_A_DM0</v>
       </c>
-      <c r="B67" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C67" s="12" t="s">
+      <c r="B67" s="12" t="s">
         <v>123</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>2</v>
       </c>
       <c r="D67" s="12" t="s">
         <v>126</v>
@@ -2767,15 +2763,15 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="16" t="str">
-        <f t="shared" si="2"/>
+      <c r="A68" s="11" t="str">
+        <f>_xlfn.CONCAT(C68,"_", LEFT(B68),"_",LEFT(D68),LEFT(E68),LEFT(F68))</f>
         <v>AVG_A_00S</v>
       </c>
-      <c r="B68" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C68" s="12" t="s">
+      <c r="B68" s="12" t="s">
         <v>123</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>2</v>
       </c>
       <c r="D68" s="11">
         <v>0</v>
@@ -2791,15 +2787,15 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="16" t="str">
-        <f t="shared" si="2"/>
+      <c r="A69" s="11" t="str">
+        <f>_xlfn.CONCAT(C69,"_", LEFT(B69),"_",LEFT(D69),LEFT(E69),LEFT(F69))</f>
         <v>AVG_A_S0S</v>
       </c>
-      <c r="B69" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C69" s="12" t="s">
+      <c r="B69" s="12" t="s">
         <v>123</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>2</v>
       </c>
       <c r="D69" s="12" t="s">
         <v>125</v>
@@ -2815,15 +2811,15 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="16" t="str">
-        <f t="shared" si="2"/>
+      <c r="A70" s="11" t="str">
+        <f>_xlfn.CONCAT(C70,"_", LEFT(B70),"_",LEFT(D70),LEFT(E70),LEFT(F70))</f>
         <v>AVG_A_D0S</v>
       </c>
-      <c r="B70" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C70" s="12" t="s">
+      <c r="B70" s="12" t="s">
         <v>123</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>2</v>
       </c>
       <c r="D70" s="12" t="s">
         <v>126</v>
@@ -2839,15 +2835,15 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="17" t="str">
-        <f t="shared" si="2"/>
+      <c r="A71" s="15" t="str">
+        <f>_xlfn.CONCAT(C71,"_", LEFT(B71),"_",LEFT(D71),LEFT(E71),LEFT(F71))</f>
         <v>AVG_A_0MS</v>
       </c>
-      <c r="B71" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C71" s="12" t="s">
+      <c r="B71" s="12" t="s">
         <v>123</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>2</v>
       </c>
       <c r="D71" s="11">
         <v>0</v>
@@ -2863,15 +2859,15 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="18" t="str">
-        <f t="shared" ref="A72:A73" si="3">_xlfn.CONCAT(B72,"_", LEFT(C72),"_",LEFT(D72),LEFT(E72),LEFT(F72))</f>
+      <c r="A72" s="16" t="str">
+        <f>_xlfn.CONCAT(C72,"_", LEFT(B72),"_",LEFT(D72),LEFT(E72),LEFT(F72))</f>
         <v>AVG_A_SMS</v>
       </c>
-      <c r="B72" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C72" s="12" t="s">
+      <c r="B72" s="12" t="s">
         <v>123</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>2</v>
       </c>
       <c r="D72" s="12" t="s">
         <v>125</v>
@@ -2887,15 +2883,15 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="18" t="str">
-        <f t="shared" si="3"/>
+      <c r="A73" s="16" t="str">
+        <f>_xlfn.CONCAT(C73,"_", LEFT(B73),"_",LEFT(D73),LEFT(E73),LEFT(F73))</f>
         <v>AVG_A_DMS</v>
       </c>
-      <c r="B73" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C73" s="12" t="s">
+      <c r="B73" s="12" t="s">
         <v>123</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>2</v>
       </c>
       <c r="D73" s="12" t="s">
         <v>126</v>

--- a/Pipelines.xlsx
+++ b/Pipelines.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\CNAS.RU.NL\U718220\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomma\Desktop\BabyBrain\Projects\EMG\Github\EMG_Pipelines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62920893-3AE9-4E81-89C4-EB444AC891A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CDD3C5F-D53E-4FC2-948C-3B3912ADF9A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{1E739431-C178-4293-9868-5ED1C61B137B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1E739431-C178-4293-9868-5ED1C61B137B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="28">
   <si>
     <t>Pipeline Name</t>
   </si>
@@ -62,358 +62,71 @@
     <t>Explanation</t>
   </si>
   <si>
-    <t>Raw  = None; Average = Average across trials</t>
-  </si>
-  <si>
-    <t>RMS = Root Mean Square; MAV = Mean Absolute Value; AUC = Area Under the Curve</t>
-  </si>
-  <si>
-    <t>0 = None; M = z-scoring within muscle</t>
-  </si>
-  <si>
-    <t>0 = None; S = z-scoring within subjects</t>
-  </si>
-  <si>
     <t>0 = None; Average = Average across trials</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>R</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>aw</t>
-    </r>
-  </si>
-  <si>
     <t>RMS</t>
   </si>
   <si>
     <t>Average</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ubtraction</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ivision</t>
-    </r>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>AUC</t>
-  </si>
-  <si>
     <t>MAV</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>verage</t>
-    </r>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
-    <t>R_RMS_000</t>
-  </si>
-  <si>
-    <t>R_RMS_S00</t>
-  </si>
-  <si>
-    <t>R_RMS_D00</t>
-  </si>
-  <si>
-    <t>R_RMS_0M0</t>
-  </si>
-  <si>
-    <t>R_RMS_SM0</t>
-  </si>
-  <si>
-    <t>R_RMS_DM0</t>
-  </si>
-  <si>
-    <t>R_RMS_00S</t>
-  </si>
-  <si>
-    <t>R_RMS_S0S</t>
-  </si>
-  <si>
-    <t>R_RMS_D0S</t>
-  </si>
-  <si>
-    <t>R_RMS_0MS</t>
-  </si>
-  <si>
-    <t>R_RMS_SMS</t>
-  </si>
-  <si>
-    <t>R_RMS_DMS</t>
-  </si>
-  <si>
-    <t>R_AUC_000</t>
-  </si>
-  <si>
-    <t>R_AUC_S00</t>
-  </si>
-  <si>
-    <t>R_AUC_D00</t>
-  </si>
-  <si>
-    <t>R_AUC_0M0</t>
-  </si>
-  <si>
-    <t>R_AUC_SM0</t>
-  </si>
-  <si>
-    <t>R_AUC_DM0</t>
-  </si>
-  <si>
-    <t>R_AUC_00S</t>
-  </si>
-  <si>
-    <t>R_AUC_S0S</t>
-  </si>
-  <si>
-    <t>R_AUC_D0S</t>
-  </si>
-  <si>
-    <t>R_AUC_0MS</t>
-  </si>
-  <si>
-    <t>R_AUC_SMS</t>
-  </si>
-  <si>
-    <t>R_AUC_DMS</t>
-  </si>
-  <si>
-    <t>R_MAV_000</t>
-  </si>
-  <si>
-    <t>R_MAV_S00</t>
-  </si>
-  <si>
-    <t>R_MAV_D00</t>
-  </si>
-  <si>
-    <t>R_MAV_0M0</t>
-  </si>
-  <si>
-    <t>R_MAV_SM0</t>
-  </si>
-  <si>
-    <t>R_MAV_DM0</t>
-  </si>
-  <si>
-    <t>R_MAV_00S</t>
-  </si>
-  <si>
-    <t>R_MAV_S0S</t>
-  </si>
-  <si>
-    <t>R_MAV_D0S</t>
-  </si>
-  <si>
-    <t>R_MAV_0MS</t>
-  </si>
-  <si>
-    <t>R_MAV_SMS</t>
-  </si>
-  <si>
-    <t>R_MAV_DMS</t>
-  </si>
-  <si>
-    <t>A_RMS_000</t>
-  </si>
-  <si>
-    <t>A_RMS_S00</t>
-  </si>
-  <si>
-    <t>A_RMS_D00</t>
-  </si>
-  <si>
-    <t>A_RMS_0M0</t>
-  </si>
-  <si>
-    <t>A_RMS_SM0</t>
-  </si>
-  <si>
-    <t>A_RMS_DM0</t>
-  </si>
-  <si>
-    <t>A_RMS_00S</t>
-  </si>
-  <si>
-    <t>A_RMS_S0S</t>
-  </si>
-  <si>
-    <t>A_RMS_D0S</t>
-  </si>
-  <si>
-    <t>A_RMS_0MS</t>
-  </si>
-  <si>
-    <t>A_RMS_SMS</t>
-  </si>
-  <si>
-    <t>A_RMS_DMS</t>
-  </si>
-  <si>
-    <t>A_AUC_000</t>
-  </si>
-  <si>
-    <t>A_AUC_S00</t>
-  </si>
-  <si>
-    <t>A_AUC_D00</t>
-  </si>
-  <si>
-    <t>A_AUC_0M0</t>
-  </si>
-  <si>
-    <t>A_AUC_SM0</t>
-  </si>
-  <si>
-    <t>A_AUC_DM0</t>
-  </si>
-  <si>
-    <t>A_AUC_00S</t>
-  </si>
-  <si>
-    <t>A_AUC_S0S</t>
-  </si>
-  <si>
-    <t>A_AUC_D0S</t>
-  </si>
-  <si>
-    <t>A_AUC_0MS</t>
-  </si>
-  <si>
-    <t>A_AUC_SMS</t>
-  </si>
-  <si>
-    <t>A_AUC_DMS</t>
-  </si>
-  <si>
-    <t>A_MAV_000</t>
-  </si>
-  <si>
-    <t>A_MAV_S00</t>
-  </si>
-  <si>
-    <t>A_MAV_D00</t>
-  </si>
-  <si>
-    <t>A_MAV_0M0</t>
-  </si>
-  <si>
-    <t>A_MAV_SM0</t>
-  </si>
-  <si>
-    <t>A_MAV_DM0</t>
-  </si>
-  <si>
-    <t>A_MAV_00S</t>
-  </si>
-  <si>
-    <t>A_MAV_S0S</t>
-  </si>
-  <si>
-    <t>A_MAV_D0S</t>
-  </si>
-  <si>
-    <t>A_MAV_0MS</t>
-  </si>
-  <si>
-    <t>A_MAV_SMS</t>
-  </si>
-  <si>
-    <t>A_MAV_DMS</t>
-  </si>
-  <si>
-    <t>0 = None; Subtraction = Subtract the baseline; Division = Divide by baseline</t>
+    <t>iEMG</t>
+  </si>
+  <si>
+    <t>Bn = None; Bs = Subtract the baseline; Bd = Divide by baseline</t>
+  </si>
+  <si>
+    <t>Bn</t>
+  </si>
+  <si>
+    <t>Bs</t>
+  </si>
+  <si>
+    <t>Bd</t>
+  </si>
+  <si>
+    <t>Mn</t>
+  </si>
+  <si>
+    <t>Ms</t>
+  </si>
+  <si>
+    <t>Mn = None; Ms = z-scoring within Muscle</t>
+  </si>
+  <si>
+    <t>Ss</t>
+  </si>
+  <si>
+    <t>Sn = None; Ss = z-Sscoring within SsubjectSs</t>
+  </si>
+  <si>
+    <t>Sn</t>
+  </si>
+  <si>
+    <t>Aa</t>
+  </si>
+  <si>
+    <t>Ab = Ab across trials before index extraction; Aa Ab across index after index extraction</t>
+  </si>
+  <si>
+    <t>Ab</t>
+  </si>
+  <si>
+    <t>RMS = Root Mean Square; MAV = Mean Absolute Value; iEMG =  Integrated Electromyography</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -432,14 +145,6 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -520,13 +225,13 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
@@ -902,13 +607,13 @@
   <dimension ref="A1:G74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" style="6" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" customWidth="1"/>
     <col min="3" max="3" width="22.28515625" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
     <col min="5" max="5" width="28.42578125" customWidth="1"/>
@@ -944,1678 +649,1750 @@
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="str">
+        <f xml:space="preserve"> CONCATENATE(B3,"_", C3,"_",D3,"_",E3,"_",F3)</f>
+        <v>Aa_RMS_Bn_Mn_Sn</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0</v>
+      <c r="D3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>25</v>
+      <c r="A4" s="4" t="str">
+        <f t="shared" ref="A4:A67" si="0" xml:space="preserve"> CONCATENATE(B4,"_", C4,"_",D4,"_",E4,"_",F4)</f>
+        <v>Aa_RMS_Bs_Mn_Sn</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0</v>
+      <c r="E4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>26</v>
+      <c r="A5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Aa_RMS_Bd_Mn_Sn</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0</v>
+      <c r="E5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="G5" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Aa_RMS_Bn_Ms_Sn</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
       <c r="E6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>28</v>
+      <c r="A7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Aa_RMS_Bs_Ms_Sn</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>29</v>
+      <c r="A8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Aa_RMS_Bd_Ms_Sn</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="G8" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Aa_RMS_Bn_Mn_Ss</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0</v>
+      <c r="E9" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>31</v>
+      <c r="A10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Aa_RMS_Bs_Mn_Ss</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="4">
-        <v>0</v>
+      <c r="E10" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>32</v>
+      <c r="A11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Aa_RMS_Bd_Mn_Ss</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="4">
-        <v>0</v>
+      <c r="E11" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G11" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Aa_RMS_Bn_Ms_Ss</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0</v>
-      </c>
       <c r="E12" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>34</v>
+      <c r="A13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Aa_RMS_Bs_Ms_Ss</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>35</v>
+      <c r="A14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Aa_RMS_Bd_Ms_Ss</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G14" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Aa_iEMG_Bn_Mn_Sn</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="5" t="s">
+      <c r="E15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Aa_iEMG_Bs_Mn_Sn</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0</v>
-      </c>
-      <c r="F15" s="4">
-        <v>0</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="4">
-        <v>0</v>
-      </c>
-      <c r="F16" s="4">
-        <v>0</v>
+      <c r="E16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>38</v>
+      <c r="A17" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Aa_iEMG_Bd_Mn_Sn</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="4">
-        <v>0</v>
-      </c>
-      <c r="F17" s="4">
-        <v>0</v>
+      <c r="E17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="G17" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Aa_iEMG_Bn_Ms_Sn</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="5" t="s">
+      <c r="E18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Aa_iEMG_Bs_Ms_Sn</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="4">
-        <v>0</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="4">
-        <v>0</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="4">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>41</v>
+      <c r="A20" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Aa_iEMG_Bd_Ms_Sn</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="4">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="G20" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Aa_iEMG_Bn_Mn_Ss</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="5" t="s">
+      <c r="E21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Aa_iEMG_Bs_Mn_Ss</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0</v>
-      </c>
-      <c r="E21" s="4">
-        <v>0</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="4">
-        <v>0</v>
+      <c r="E22" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>44</v>
+      <c r="A23" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Aa_iEMG_Bd_Mn_Ss</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="4">
-        <v>0</v>
+      <c r="E23" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G23" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Aa_iEMG_Bn_Ms_Ss</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="5" t="s">
+      <c r="E24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Aa_iEMG_Bs_Ms_Ss</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="4">
-        <v>0</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>47</v>
+      <c r="A26" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Aa_iEMG_Bd_Ms_Ss</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G26" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Aa_MAV_Bn_Mn_Sn</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="4">
-        <v>0</v>
-      </c>
-      <c r="E27" s="4">
-        <v>0</v>
-      </c>
-      <c r="F27" s="4">
-        <v>0</v>
+      <c r="E27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>49</v>
+      <c r="A28" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Aa_MAV_Bs_Mn_Sn</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="4">
-        <v>0</v>
-      </c>
-      <c r="F28" s="4">
-        <v>0</v>
+      <c r="E28" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>50</v>
+      <c r="A29" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Aa_MAV_Bd_Mn_Sn</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="4">
-        <v>0</v>
-      </c>
-      <c r="F29" s="4">
-        <v>0</v>
+      <c r="E29" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="G29" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Aa_MAV_Bn_Ms_Sn</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="4">
-        <v>0</v>
-      </c>
       <c r="E30" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F30" s="4">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>52</v>
+      <c r="A31" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Aa_MAV_Bs_Ms_Sn</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F31" s="4">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>53</v>
+      <c r="A32" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Aa_MAV_Bd_Ms_Sn</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F32" s="4">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="G32" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Aa_MAV_Bn_Mn_Ss</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" s="4">
-        <v>0</v>
-      </c>
-      <c r="E33" s="4">
-        <v>0</v>
+      <c r="E33" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>55</v>
+      <c r="A34" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Aa_MAV_Bs_Mn_Ss</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="4">
-        <v>0</v>
+      <c r="E34" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>56</v>
+      <c r="A35" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Aa_MAV_Bd_Mn_Ss</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E35" s="4">
-        <v>0</v>
+      <c r="E35" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G35" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Aa_MAV_Bn_Ms_Ss</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="4">
-        <v>0</v>
-      </c>
       <c r="E36" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>58</v>
+      <c r="A37" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Aa_MAV_Bs_Ms_Ss</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>59</v>
+      <c r="A38" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Aa_MAV_Bd_Ms_Ss</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G38" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Ab_RMS_Bn_Mn_Sn</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" s="4">
-        <v>0</v>
-      </c>
-      <c r="E39" s="4">
-        <v>0</v>
-      </c>
-      <c r="F39" s="4">
-        <v>0</v>
+      <c r="E39" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>61</v>
+      <c r="A40" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Ab_RMS_Bs_Mn_Sn</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E40" s="4">
-        <v>0</v>
-      </c>
-      <c r="F40" s="4">
-        <v>0</v>
+      <c r="E40" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>62</v>
+      <c r="A41" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Ab_RMS_Bd_Mn_Sn</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E41" s="4">
-        <v>0</v>
-      </c>
-      <c r="F41" s="4">
-        <v>0</v>
+      <c r="E41" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>63</v>
+      <c r="A42" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Ab_RMS_Bn_Ms_Sn</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" s="4">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F42" s="4">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>64</v>
+      <c r="A43" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Ab_RMS_Bs_Ms_Sn</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F43" s="4">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>65</v>
+      <c r="A44" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Ab_RMS_Bd_Ms_Sn</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F44" s="4">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>66</v>
+      <c r="A45" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Ab_RMS_Bn_Mn_Ss</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" s="4">
-        <v>0</v>
-      </c>
-      <c r="E45" s="4">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>67</v>
+      <c r="A46" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Ab_RMS_Bs_Mn_Ss</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E46" s="4">
-        <v>0</v>
+      <c r="E46" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>68</v>
+      <c r="A47" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Ab_RMS_Bd_Mn_Ss</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E47" s="4">
-        <v>0</v>
+      <c r="E47" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>69</v>
+      <c r="A48" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Ab_RMS_Bn_Ms_Ss</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D48" s="4">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>70</v>
+      <c r="A49" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Ab_RMS_Bs_Ms_Ss</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>71</v>
+      <c r="A50" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Ab_RMS_Bd_Ms_Ss</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>72</v>
+      <c r="A51" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Ab_iEMG_Bn_Mn_Sn</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D51" s="4">
-        <v>0</v>
-      </c>
-      <c r="E51" s="4">
-        <v>0</v>
-      </c>
-      <c r="F51" s="4">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
-        <v>73</v>
+      <c r="A52" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Ab_iEMG_Bs_Mn_Sn</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E52" s="4">
-        <v>0</v>
-      </c>
-      <c r="F52" s="4">
-        <v>0</v>
+      <c r="E52" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
-        <v>74</v>
+      <c r="A53" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Ab_iEMG_Bd_Mn_Sn</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E53" s="4">
-        <v>0</v>
-      </c>
-      <c r="F53" s="4">
-        <v>0</v>
+      <c r="E53" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
-        <v>75</v>
+      <c r="A54" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Ab_iEMG_Bn_Ms_Sn</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D54" s="4">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F54" s="4">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
-        <v>76</v>
+      <c r="A55" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Ab_iEMG_Bs_Ms_Sn</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F55" s="4">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
-        <v>77</v>
+      <c r="A56" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Ab_iEMG_Bd_Ms_Sn</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F56" s="4">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
-        <v>78</v>
+      <c r="A57" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Ab_iEMG_Bn_Mn_Ss</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D57" s="4">
-        <v>0</v>
-      </c>
-      <c r="E57" s="4">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
-        <v>79</v>
+      <c r="A58" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Ab_iEMG_Bs_Mn_Ss</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E58" s="4">
-        <v>0</v>
+      <c r="E58" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
-        <v>80</v>
+      <c r="A59" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Ab_iEMG_Bd_Mn_Ss</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E59" s="4">
-        <v>0</v>
+      <c r="E59" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
-        <v>81</v>
+      <c r="A60" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Ab_iEMG_Bn_Ms_Ss</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D60" s="4">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
-        <v>82</v>
+      <c r="A61" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Ab_iEMG_Bs_Ms_Ss</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
-        <v>83</v>
+      <c r="A62" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Ab_iEMG_Bd_Ms_Ss</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
-        <v>84</v>
+      <c r="A63" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Ab_MAV_Bn_Mn_Sn</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D63" s="4">
-        <v>0</v>
-      </c>
-      <c r="E63" s="4">
-        <v>0</v>
-      </c>
-      <c r="F63" s="4">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
-        <v>85</v>
+      <c r="A64" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Ab_MAV_Bs_Mn_Sn</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E64" s="4">
-        <v>0</v>
-      </c>
-      <c r="F64" s="4">
-        <v>0</v>
+      <c r="E64" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
-        <v>86</v>
+      <c r="A65" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Ab_MAV_Bd_Mn_Sn</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E65" s="4">
-        <v>0</v>
-      </c>
-      <c r="F65" s="4">
-        <v>0</v>
+      <c r="E65" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
-        <v>87</v>
+      <c r="A66" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Ab_MAV_Bn_Ms_Sn</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D66" s="4">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F66" s="4">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
-        <v>88</v>
+      <c r="A67" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Ab_MAV_Bs_Ms_Sn</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F67" s="4">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
-        <v>89</v>
+      <c r="A68" s="4" t="str">
+        <f t="shared" ref="A68:A74" si="1" xml:space="preserve"> CONCATENATE(B68,"_", C68,"_",D68,"_",E68,"_",F68)</f>
+        <v>Ab_MAV_Bd_Ms_Sn</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F68" s="4">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
-        <v>90</v>
+      <c r="A69" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Ab_MAV_Bn_Mn_Ss</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D69" s="4">
-        <v>0</v>
-      </c>
-      <c r="E69" s="4">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
-        <v>91</v>
+      <c r="A70" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Ab_MAV_Bs_Mn_Ss</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="4">
-        <v>0</v>
+      <c r="E70" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
-        <v>92</v>
+      <c r="A71" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Ab_MAV_Bd_Mn_Ss</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E71" s="4">
-        <v>0</v>
+      <c r="E71" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
-        <v>93</v>
+      <c r="A72" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Ab_MAV_Bn_Ms_Ss</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D72" s="4">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
-        <v>94</v>
+      <c r="A73" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Ab_MAV_Bs_Ms_Ss</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
-        <v>95</v>
+      <c r="A74" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>Ab_MAV_Bd_Ms_Ss</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Pipelines.xlsx
+++ b/Pipelines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomma\Desktop\BabyBrain\Projects\EMG\Github\EMG_Pipelines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CDD3C5F-D53E-4FC2-948C-3B3912ADF9A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634FDAA5-04A0-4FF7-AF01-4E5FA726CDF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1E739431-C178-4293-9868-5ED1C61B137B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="24">
   <si>
     <t>Pipeline Name</t>
   </si>
@@ -56,25 +56,13 @@
     <t>Standardization within subjects</t>
   </si>
   <si>
-    <t>Data reduction</t>
-  </si>
-  <si>
     <t>Explanation</t>
   </si>
   <si>
-    <t>0 = None; Average = Average across trials</t>
-  </si>
-  <si>
     <t>RMS</t>
   </si>
   <si>
-    <t>Average</t>
-  </si>
-  <si>
     <t>MAV</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>iEMG</t>
@@ -185,7 +173,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -202,28 +190,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -241,19 +214,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -292,16 +259,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C213DD08-F1FC-416A-81AE-C7B9FDECC37D}" name="Table32" displayName="Table32" ref="A1:G74" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowCellStyle="Heading 1" dataCellStyle="20% - Accent1">
-  <autoFilter ref="A1:G74" xr:uid="{C213DD08-F1FC-416A-81AE-C7B9FDECC37D}"/>
-  <tableColumns count="7">
-    <tableColumn id="4" xr3:uid="{EFA8F5CA-8FF2-440F-A06D-DFF798468CA2}" name="Pipeline Name" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{1CF5FC01-7810-4CA7-9210-AB1F54BD02E3}" name="Signal averaging" dataDxfId="5" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="2" xr3:uid="{882FE0B3-8295-4489-A6E3-C9B60E44ADEF}" name="Feature of interest" dataDxfId="4" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="9" xr3:uid="{64AB90D7-7B8A-477E-A53F-28FE2184EB54}" name="Baseline correction" dataDxfId="3" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="8" xr3:uid="{064A235F-CD93-4F2D-AD44-F0C019ABE14A}" name="Standardization within muscle" dataDxfId="2" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="10" xr3:uid="{E0F8B9C6-FE8A-4123-9B98-39EB114B45CA}" name="Standardization within subjects" dataDxfId="1" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="5" xr3:uid="{2B1C4363-ECAA-466C-88E3-AB61D063F853}" name="Data reduction" dataDxfId="0" dataCellStyle="20% - Accent1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C213DD08-F1FC-416A-81AE-C7B9FDECC37D}" name="Table32" displayName="Table32" ref="A1:F74" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" headerRowCellStyle="Heading 1" dataCellStyle="20% - Accent1">
+  <autoFilter ref="A1:F74" xr:uid="{C213DD08-F1FC-416A-81AE-C7B9FDECC37D}"/>
+  <tableColumns count="6">
+    <tableColumn id="4" xr3:uid="{EFA8F5CA-8FF2-440F-A06D-DFF798468CA2}" name="Pipeline Name" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{1CF5FC01-7810-4CA7-9210-AB1F54BD02E3}" name="Signal averaging" dataDxfId="4" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="2" xr3:uid="{882FE0B3-8295-4489-A6E3-C9B60E44ADEF}" name="Feature of interest" dataDxfId="3" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="9" xr3:uid="{64AB90D7-7B8A-477E-A53F-28FE2184EB54}" name="Baseline correction" dataDxfId="2" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="8" xr3:uid="{064A235F-CD93-4F2D-AD44-F0C019ABE14A}" name="Standardization within muscle" dataDxfId="1" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="10" xr3:uid="{E0F8B9C6-FE8A-4123-9B98-39EB114B45CA}" name="Standardization within subjects" dataDxfId="0" dataCellStyle="20% - Accent1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -604,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C025EC-FB21-4E5C-811E-1A825FE9EB0C}">
-  <dimension ref="A1:G74"/>
+  <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,10 +584,9 @@
     <col min="4" max="4" width="24" customWidth="1"/>
     <col min="5" max="5" width="28.42578125" customWidth="1"/>
     <col min="6" max="6" width="29" customWidth="1"/>
-    <col min="7" max="7" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -640,1759 +605,1537 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="B2" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="str">
         <f xml:space="preserve"> CONCATENATE(B3,"_", C3,"_",D3,"_",E3,"_",F3)</f>
         <v>Aa_RMS_Bn_Mn_Sn</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="str">
         <f t="shared" ref="A4:A67" si="0" xml:space="preserve"> CONCATENATE(B4,"_", C4,"_",D4,"_",E4,"_",F4)</f>
         <v>Aa_RMS_Bs_Mn_Sn</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Aa_RMS_Bd_Mn_Sn</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Aa_RMS_Bn_Ms_Sn</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Aa_RMS_Bs_Ms_Sn</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Aa_RMS_Bd_Ms_Sn</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Aa_RMS_Bn_Mn_Ss</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Aa_RMS_Bs_Mn_Ss</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Aa_RMS_Bd_Mn_Ss</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Aa_RMS_Bn_Ms_Ss</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Aa_RMS_Bs_Ms_Ss</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Aa_RMS_Bd_Ms_Ss</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Aa_iEMG_Bn_Mn_Sn</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Aa_iEMG_Bs_Mn_Sn</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Aa_iEMG_Bd_Mn_Sn</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Aa_iEMG_Bn_Ms_Sn</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Aa_iEMG_Bs_Ms_Sn</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Aa_iEMG_Bd_Ms_Sn</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Aa_iEMG_Bn_Mn_Ss</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Aa_iEMG_Bs_Mn_Ss</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Aa_iEMG_Bd_Mn_Ss</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Aa_iEMG_Bn_Ms_Ss</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Aa_iEMG_Bs_Ms_Ss</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Aa_iEMG_Bd_Ms_Ss</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Aa_MAV_Bn_Mn_Sn</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Aa_MAV_Bs_Mn_Sn</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Aa_MAV_Bd_Mn_Sn</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Aa_MAV_Bn_Ms_Sn</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Aa_MAV_Bs_Ms_Sn</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Aa_MAV_Bd_Ms_Sn</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Aa_MAV_Bn_Mn_Ss</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Aa_MAV_Bs_Mn_Ss</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Aa_MAV_Bd_Mn_Ss</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Aa_MAV_Bn_Ms_Ss</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Aa_MAV_Bs_Ms_Ss</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Aa_MAV_Bd_Ms_Ss</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Ab_RMS_Bn_Mn_Sn</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Ab_RMS_Bs_Mn_Sn</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Ab_RMS_Bd_Mn_Sn</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Ab_RMS_Bn_Ms_Sn</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Ab_RMS_Bs_Ms_Sn</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Ab_RMS_Bd_Ms_Sn</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Ab_RMS_Bn_Mn_Ss</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Ab_RMS_Bs_Mn_Ss</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Ab_RMS_Bd_Mn_Ss</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Ab_RMS_Bn_Ms_Ss</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Ab_RMS_Bs_Ms_Ss</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Ab_RMS_Bd_Ms_Ss</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Ab_iEMG_Bn_Mn_Sn</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Ab_iEMG_Bs_Mn_Sn</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Ab_iEMG_Bd_Mn_Sn</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Ab_iEMG_Bn_Ms_Sn</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Ab_iEMG_Bs_Ms_Sn</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Ab_iEMG_Bd_Ms_Sn</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Ab_iEMG_Bn_Mn_Ss</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Ab_iEMG_Bs_Mn_Ss</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Ab_iEMG_Bd_Mn_Ss</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Ab_iEMG_Bn_Ms_Ss</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Ab_iEMG_Bs_Ms_Ss</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Ab_iEMG_Bd_Ms_Ss</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G62" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Ab_MAV_Bn_Mn_Sn</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Ab_MAV_Bs_Mn_Sn</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G64" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Ab_MAV_Bd_Mn_Sn</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Ab_MAV_Bn_Ms_Sn</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Ab_MAV_Bs_Ms_Sn</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="str">
         <f t="shared" ref="A68:A74" si="1" xml:space="preserve"> CONCATENATE(B68,"_", C68,"_",D68,"_",E68,"_",F68)</f>
         <v>Ab_MAV_Bd_Ms_Sn</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G68" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Ab_MAV_Bn_Mn_Ss</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Ab_MAV_Bs_Mn_Ss</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G70" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Ab_MAV_Bd_Mn_Ss</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G71" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Ab_MAV_Bn_Ms_Ss</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G72" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Ab_MAV_Bs_Ms_Ss</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Ab_MAV_Bd_Ms_Ss</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G74" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Pipelines.xlsx
+++ b/Pipelines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomma\Desktop\BabyBrain\Projects\EMG\Github\EMG_Pipelines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634FDAA5-04A0-4FF7-AF01-4E5FA726CDF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C057D2F-8F36-4BDC-BC76-CF0F01F533C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1E739431-C178-4293-9868-5ED1C61B137B}"/>
   </bookViews>
@@ -92,22 +92,22 @@
     <t>Ss</t>
   </si>
   <si>
-    <t>Sn = None; Ss = z-Sscoring within SsubjectSs</t>
-  </si>
-  <si>
     <t>Sn</t>
   </si>
   <si>
     <t>Aa</t>
   </si>
   <si>
-    <t>Ab = Ab across trials before index extraction; Aa Ab across index after index extraction</t>
-  </si>
-  <si>
     <t>Ab</t>
   </si>
   <si>
     <t>RMS = Root Mean Square; MAV = Mean Absolute Value; iEMG =  Integrated Electromyography</t>
+  </si>
+  <si>
+    <t>Ab = Average across trials before index extraction; Aa = Average across index after index extraction</t>
+  </si>
+  <si>
+    <t>Sn = None; Ss = z-scoring within Subjects</t>
   </si>
 </sst>
 </file>
@@ -573,7 +573,7 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="I17" sqref="I16:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,10 +611,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
@@ -623,7 +623,7 @@
         <v>16</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -632,7 +632,7 @@
         <v>Aa_RMS_Bn_Mn_Sn</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>7</v>
@@ -644,7 +644,7 @@
         <v>14</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -653,7 +653,7 @@
         <v>Aa_RMS_Bs_Mn_Sn</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>7</v>
@@ -665,7 +665,7 @@
         <v>14</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -674,7 +674,7 @@
         <v>Aa_RMS_Bd_Mn_Sn</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
@@ -686,7 +686,7 @@
         <v>14</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -695,7 +695,7 @@
         <v>Aa_RMS_Bn_Ms_Sn</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>7</v>
@@ -707,7 +707,7 @@
         <v>15</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -716,7 +716,7 @@
         <v>Aa_RMS_Bs_Ms_Sn</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>7</v>
@@ -728,7 +728,7 @@
         <v>15</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -737,7 +737,7 @@
         <v>Aa_RMS_Bd_Ms_Sn</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>7</v>
@@ -749,7 +749,7 @@
         <v>15</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -758,7 +758,7 @@
         <v>Aa_RMS_Bn_Mn_Ss</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>7</v>
@@ -779,7 +779,7 @@
         <v>Aa_RMS_Bs_Mn_Ss</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>7</v>
@@ -800,7 +800,7 @@
         <v>Aa_RMS_Bd_Mn_Ss</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>7</v>
@@ -821,7 +821,7 @@
         <v>Aa_RMS_Bn_Ms_Ss</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>7</v>
@@ -842,7 +842,7 @@
         <v>Aa_RMS_Bs_Ms_Ss</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>7</v>
@@ -863,7 +863,7 @@
         <v>Aa_RMS_Bd_Ms_Ss</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>7</v>
@@ -884,7 +884,7 @@
         <v>Aa_iEMG_Bn_Mn_Sn</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>9</v>
@@ -896,7 +896,7 @@
         <v>14</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -905,7 +905,7 @@
         <v>Aa_iEMG_Bs_Mn_Sn</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>9</v>
@@ -917,7 +917,7 @@
         <v>14</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -926,7 +926,7 @@
         <v>Aa_iEMG_Bd_Mn_Sn</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>9</v>
@@ -938,7 +938,7 @@
         <v>14</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -947,7 +947,7 @@
         <v>Aa_iEMG_Bn_Ms_Sn</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>9</v>
@@ -959,7 +959,7 @@
         <v>15</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -968,7 +968,7 @@
         <v>Aa_iEMG_Bs_Ms_Sn</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>9</v>
@@ -980,7 +980,7 @@
         <v>15</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -989,7 +989,7 @@
         <v>Aa_iEMG_Bd_Ms_Sn</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>9</v>
@@ -1001,7 +1001,7 @@
         <v>15</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1010,7 +1010,7 @@
         <v>Aa_iEMG_Bn_Mn_Ss</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>9</v>
@@ -1031,7 +1031,7 @@
         <v>Aa_iEMG_Bs_Mn_Ss</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>9</v>
@@ -1052,7 +1052,7 @@
         <v>Aa_iEMG_Bd_Mn_Ss</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>9</v>
@@ -1073,7 +1073,7 @@
         <v>Aa_iEMG_Bn_Ms_Ss</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>9</v>
@@ -1094,7 +1094,7 @@
         <v>Aa_iEMG_Bs_Ms_Ss</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>9</v>
@@ -1115,7 +1115,7 @@
         <v>Aa_iEMG_Bd_Ms_Ss</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>9</v>
@@ -1136,7 +1136,7 @@
         <v>Aa_MAV_Bn_Mn_Sn</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>8</v>
@@ -1148,7 +1148,7 @@
         <v>14</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1157,7 +1157,7 @@
         <v>Aa_MAV_Bs_Mn_Sn</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>8</v>
@@ -1169,7 +1169,7 @@
         <v>14</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1178,7 +1178,7 @@
         <v>Aa_MAV_Bd_Mn_Sn</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>8</v>
@@ -1190,7 +1190,7 @@
         <v>14</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1199,7 +1199,7 @@
         <v>Aa_MAV_Bn_Ms_Sn</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>8</v>
@@ -1211,7 +1211,7 @@
         <v>15</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1220,7 +1220,7 @@
         <v>Aa_MAV_Bs_Ms_Sn</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>8</v>
@@ -1232,7 +1232,7 @@
         <v>15</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1241,7 +1241,7 @@
         <v>Aa_MAV_Bd_Ms_Sn</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>8</v>
@@ -1253,7 +1253,7 @@
         <v>15</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1262,7 +1262,7 @@
         <v>Aa_MAV_Bn_Mn_Ss</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>8</v>
@@ -1283,7 +1283,7 @@
         <v>Aa_MAV_Bs_Mn_Ss</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>8</v>
@@ -1304,7 +1304,7 @@
         <v>Aa_MAV_Bd_Mn_Ss</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>8</v>
@@ -1325,7 +1325,7 @@
         <v>Aa_MAV_Bn_Ms_Ss</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>8</v>
@@ -1346,7 +1346,7 @@
         <v>Aa_MAV_Bs_Ms_Ss</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>8</v>
@@ -1367,7 +1367,7 @@
         <v>Aa_MAV_Bd_Ms_Ss</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>8</v>
@@ -1388,7 +1388,7 @@
         <v>Ab_RMS_Bn_Mn_Sn</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>7</v>
@@ -1400,7 +1400,7 @@
         <v>14</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1409,7 +1409,7 @@
         <v>Ab_RMS_Bs_Mn_Sn</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>7</v>
@@ -1421,7 +1421,7 @@
         <v>14</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1430,7 +1430,7 @@
         <v>Ab_RMS_Bd_Mn_Sn</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>7</v>
@@ -1442,7 +1442,7 @@
         <v>14</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1451,7 +1451,7 @@
         <v>Ab_RMS_Bn_Ms_Sn</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>7</v>
@@ -1463,7 +1463,7 @@
         <v>15</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1472,7 +1472,7 @@
         <v>Ab_RMS_Bs_Ms_Sn</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>7</v>
@@ -1484,7 +1484,7 @@
         <v>15</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1493,7 +1493,7 @@
         <v>Ab_RMS_Bd_Ms_Sn</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>7</v>
@@ -1505,7 +1505,7 @@
         <v>15</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1514,7 +1514,7 @@
         <v>Ab_RMS_Bn_Mn_Ss</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>7</v>
@@ -1535,7 +1535,7 @@
         <v>Ab_RMS_Bs_Mn_Ss</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>7</v>
@@ -1556,7 +1556,7 @@
         <v>Ab_RMS_Bd_Mn_Ss</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>7</v>
@@ -1577,7 +1577,7 @@
         <v>Ab_RMS_Bn_Ms_Ss</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>7</v>
@@ -1598,7 +1598,7 @@
         <v>Ab_RMS_Bs_Ms_Ss</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>7</v>
@@ -1619,7 +1619,7 @@
         <v>Ab_RMS_Bd_Ms_Ss</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>7</v>
@@ -1640,7 +1640,7 @@
         <v>Ab_iEMG_Bn_Mn_Sn</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>9</v>
@@ -1652,7 +1652,7 @@
         <v>14</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1661,7 +1661,7 @@
         <v>Ab_iEMG_Bs_Mn_Sn</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>9</v>
@@ -1673,7 +1673,7 @@
         <v>14</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1682,7 +1682,7 @@
         <v>Ab_iEMG_Bd_Mn_Sn</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>9</v>
@@ -1694,7 +1694,7 @@
         <v>14</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1703,7 +1703,7 @@
         <v>Ab_iEMG_Bn_Ms_Sn</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>9</v>
@@ -1715,7 +1715,7 @@
         <v>15</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1724,7 +1724,7 @@
         <v>Ab_iEMG_Bs_Ms_Sn</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>9</v>
@@ -1736,7 +1736,7 @@
         <v>15</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1745,7 +1745,7 @@
         <v>Ab_iEMG_Bd_Ms_Sn</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>9</v>
@@ -1757,7 +1757,7 @@
         <v>15</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -1766,7 +1766,7 @@
         <v>Ab_iEMG_Bn_Mn_Ss</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>9</v>
@@ -1787,7 +1787,7 @@
         <v>Ab_iEMG_Bs_Mn_Ss</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>9</v>
@@ -1808,7 +1808,7 @@
         <v>Ab_iEMG_Bd_Mn_Ss</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>9</v>
@@ -1829,7 +1829,7 @@
         <v>Ab_iEMG_Bn_Ms_Ss</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>9</v>
@@ -1850,7 +1850,7 @@
         <v>Ab_iEMG_Bs_Ms_Ss</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>9</v>
@@ -1871,7 +1871,7 @@
         <v>Ab_iEMG_Bd_Ms_Ss</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>9</v>
@@ -1892,7 +1892,7 @@
         <v>Ab_MAV_Bn_Mn_Sn</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>8</v>
@@ -1904,7 +1904,7 @@
         <v>14</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -1913,7 +1913,7 @@
         <v>Ab_MAV_Bs_Mn_Sn</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>8</v>
@@ -1925,7 +1925,7 @@
         <v>14</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -1934,7 +1934,7 @@
         <v>Ab_MAV_Bd_Mn_Sn</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>8</v>
@@ -1946,7 +1946,7 @@
         <v>14</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -1955,7 +1955,7 @@
         <v>Ab_MAV_Bn_Ms_Sn</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>8</v>
@@ -1967,7 +1967,7 @@
         <v>15</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -1976,7 +1976,7 @@
         <v>Ab_MAV_Bs_Ms_Sn</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>8</v>
@@ -1988,7 +1988,7 @@
         <v>15</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -1997,7 +1997,7 @@
         <v>Ab_MAV_Bd_Ms_Sn</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>8</v>
@@ -2009,7 +2009,7 @@
         <v>15</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2018,7 +2018,7 @@
         <v>Ab_MAV_Bn_Mn_Ss</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>8</v>
@@ -2039,7 +2039,7 @@
         <v>Ab_MAV_Bs_Mn_Ss</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>8</v>
@@ -2060,7 +2060,7 @@
         <v>Ab_MAV_Bd_Mn_Ss</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>8</v>
@@ -2081,7 +2081,7 @@
         <v>Ab_MAV_Bn_Ms_Ss</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>8</v>
@@ -2102,7 +2102,7 @@
         <v>Ab_MAV_Bs_Ms_Ss</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>8</v>
@@ -2123,7 +2123,7 @@
         <v>Ab_MAV_Bd_Ms_Ss</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>8</v>
